--- a/RegulatoryPolicyPlanning/Structure.xlsx
+++ b/RegulatoryPolicyPlanning/Structure.xlsx
@@ -764,7 +764,7 @@
         <v>37</v>
       </c>
       <c r="E14" s="5" t="s">
-        <v>24</v>
+        <v>9</v>
       </c>
       <c r="F14" s="3"/>
       <c r="G14" s="3"/>
